--- a/resources/test_data/NFH_service_Change_Address.xlsx
+++ b/resources/test_data/NFH_service_Change_Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D37ED37-0A9F-4C79-8FF7-764AA231E3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45794471-B805-4F40-835E-4F2B6E046EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Service Request Change Mailing Address</t>
   </si>
   <si>
-    <t>2-Correspondence Address</t>
-  </si>
-  <si>
     <t>3-Present Address</t>
   </si>
   <si>
@@ -180,6 +177,12 @@
   </si>
   <si>
     <t>1-Office Address</t>
+  </si>
+  <si>
+    <t>77235</t>
+  </si>
+  <si>
+    <t>2-Mailing Address</t>
   </si>
 </sst>
 </file>
@@ -847,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -993,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>34</v>
@@ -1017,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>3</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="4" spans="1:17" ht="75">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>4</v>
@@ -1046,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>35</v>
@@ -1070,10 +1073,10 @@
         <v>21</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
@@ -1081,7 +1084,7 @@
     </row>
     <row r="5" spans="1:17" ht="60">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -1099,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>36</v>
@@ -1123,10 +1126,10 @@
         <v>21</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>

--- a/resources/test_data/NFH_service_Change_Address.xlsx
+++ b/resources/test_data/NFH_service_Change_Address.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45794471-B805-4F40-835E-4F2B6E046EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B9537-7C82-488A-9A31-18CABF273FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>username</t>
   </si>
@@ -71,9 +71,6 @@
     <t>username2</t>
   </si>
   <si>
-    <t>77177</t>
-  </si>
-  <si>
     <t>buildingNo</t>
   </si>
   <si>
@@ -179,10 +176,28 @@
     <t>1-Office Address</t>
   </si>
   <si>
-    <t>77235</t>
-  </si>
-  <si>
     <t>2-Mailing Address</t>
+  </si>
+  <si>
+    <t>77345</t>
+  </si>
+  <si>
+    <t>grpName</t>
+  </si>
+  <si>
+    <t>assignUser</t>
+  </si>
+  <si>
+    <t>makerRemarks</t>
+  </si>
+  <si>
+    <t>SRVF</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Change address</t>
   </si>
 </sst>
 </file>
@@ -311,18 +326,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -563,23 +635,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:Q5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="D1:Q5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="username3" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="password" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{967B1CEC-1373-4B37-B605-9DD555121E42}" name="IdType" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="customerID" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="flatNo" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="buildingNo" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="nearestLandMark" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="roadNumber" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="blockCode" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="country" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="cityArea" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}" name="Table2" displayName="Table2" ref="D1:T5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="D1:T5" xr:uid="{DC87E5BE-26EC-4DBC-8565-103061C7F3D4}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{F63B5B5B-75EF-415D-9D47-65053D6DF43A}" name="username3" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00DFF19F-9E5D-44BD-B746-C5D10556D9C8}" name="password" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{967B1CEC-1373-4B37-B605-9DD555121E42}" name="IdType" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{16007208-EDF9-4E5D-AAA6-7F837DDD8C78}" name="customerID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{EBB0D839-0B51-4805-BD0B-AAB83E639E7A}" name="flatNo" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{07BF2CBA-E818-4808-9F87-9C6E9B8E27EB}" name="buildingNo" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{2E161694-E056-49B2-B02C-18609B166288}" name="nearestLandMark" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{833F8941-B4C0-4E9B-89CA-6ACBE1BBC919}" name="roadNumber" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{6AB217CA-8575-47C6-8323-49DBB8179C87}" name="blockCode" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B427C861-36D2-4A49-8916-781C22F94FF4}" name="country" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{BC30846C-2EA9-4DD7-B7FD-8EFA2281FD70}" name="cityArea" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{7521EBC7-8105-4B20-B089-0355970E2900}" name="addressType" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{A68B51A1-92D8-490D-8098-B759DD9581A1}" name="addressTypeValue" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{F19CF168-BC8D-46DE-ACA0-71EDB250DFFF}" name="activeInActive" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E919C7DF-E7A7-4C8B-87B3-0FDBD58401E1}" name="grpName" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{70FA5232-4C26-4A03-A9CA-287004B967A5}" name="assignUser" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{94A0637B-4BB0-459B-ADAA-3B3F1580584E}" name="makerRemarks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,29 +923,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -881,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -892,135 +967,153 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>12</v>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>28</v>
+      <c r="R1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="90">
+    <row r="2" spans="1:20" ht="87">
       <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2">
         <v>9852</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2">
         <v>1001</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
+      <c r="R2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="75">
+    <row r="3" spans="1:20" ht="72.5">
       <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2">
         <v>9853</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>1002</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>3</v>
@@ -1028,114 +1121,141 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="75">
+    <row r="4" spans="1:20" ht="72.5">
       <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2">
         <v>9854</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
         <v>1003</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
+      <c r="R4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="60">
+    <row r="5" spans="1:20" ht="58">
       <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="J5" s="2">
         <v>9855</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2">
         <v>1004</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
       </c>
+      <c r="R5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="H8" s="4"/>
     </row>
   </sheetData>

--- a/resources/test_data/NFH_service_Change_Address.xlsx
+++ b/resources/test_data/NFH_service_Change_Address.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_automation_\web-automation-framework\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B9537-7C82-488A-9A31-18CABF273FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF6D1B3-22B2-4822-BD0A-3D87FD6163D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>2-Mailing Address</t>
   </si>
   <si>
-    <t>77345</t>
-  </si>
-  <si>
     <t>grpName</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Change address</t>
+  </si>
+  <si>
+    <t>77369</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -998,13 +998,13 @@
         <v>27</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="87">
@@ -1027,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>9</v>
@@ -1060,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="72.5">
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>33</v>
@@ -1122,13 +1122,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="72.5">
@@ -1151,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>34</v>
@@ -1184,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="58">
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>35</v>
@@ -1246,13 +1246,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:20">
